--- a/homework/HW_520_ShortestPath.xlsx
+++ b/homework/HW_520_ShortestPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D959EA-B12C-1146-BE93-76769AD70C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B12148-67E9-A141-BBA9-5B329ED386F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="28260" windowHeight="18840" activeTab="2" xr2:uid="{BC857EBF-F8F5-FA4A-A099-0DC5527EF30D}"/>
+    <workbookView xWindow="-4700" yWindow="-22060" windowWidth="24940" windowHeight="12320" activeTab="1" xr2:uid="{BC857EBF-F8F5-FA4A-A099-0DC5527EF30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="7" r:id="rId1"/>
@@ -808,7 +808,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="Q29"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCB6FBF-99F8-5E4F-83C5-E0A6E1FB0700}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
